--- a/data_month/zb/工业/工业主要产品产量/挖掘铲土运输机械.xlsx
+++ b/data_month/zb/工业/工业主要产品产量/挖掘铲土运输机械.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,210 +454,248 @@
           <t>挖掘铲土运输机械产量_累计增长</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>挖掘铲土运输机械产量</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2021年10月</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>-4.8</v>
-      </c>
-      <c r="C2" t="n">
-        <v>47605</v>
-      </c>
+          <t>2021-02</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
-        <v>526113</v>
+        <v>128147</v>
       </c>
       <c r="E2" t="n">
-        <v>15.1</v>
+        <v>105.1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>128147</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2021年11月</t>
+          <t>2021-03</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-12.1</v>
+        <v>48.4</v>
       </c>
       <c r="C3" t="n">
-        <v>51217</v>
+        <v>95385</v>
       </c>
       <c r="D3" t="n">
-        <v>577280</v>
+        <v>227231</v>
       </c>
       <c r="E3" t="n">
-        <v>13.1</v>
+        <v>74.90000000000001</v>
+      </c>
+      <c r="F3" t="n">
+        <v>99084</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2021年12月</t>
+          <t>2021-04</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-12.8</v>
+        <v>5.1</v>
       </c>
       <c r="C4" t="n">
-        <v>55463</v>
+        <v>79552</v>
       </c>
       <c r="D4" t="n">
-        <v>634376</v>
+        <v>310081</v>
       </c>
       <c r="E4" t="n">
-        <v>9.300000000000001</v>
+        <v>52.2</v>
+      </c>
+      <c r="F4" t="n">
+        <v>82850</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2021年2月</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
+          <t>2021-05</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-9</v>
+      </c>
+      <c r="C5" t="n">
+        <v>64162</v>
+      </c>
       <c r="D5" t="n">
-        <v>128147</v>
+        <v>374651</v>
       </c>
       <c r="E5" t="n">
-        <v>105.1</v>
+        <v>36.7</v>
+      </c>
+      <c r="F5" t="n">
+        <v>64570</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2021年3月</t>
+          <t>2021-06</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>48.4</v>
+        <v>-15</v>
       </c>
       <c r="C6" t="n">
-        <v>95385</v>
+        <v>51498</v>
       </c>
       <c r="D6" t="n">
-        <v>227231</v>
+        <v>425461</v>
       </c>
       <c r="E6" t="n">
-        <v>74.90000000000001</v>
+        <v>27</v>
+      </c>
+      <c r="F6" t="n">
+        <v>50810</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2021年4月</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.1</v>
+        <v>-1</v>
       </c>
       <c r="C7" t="n">
-        <v>79552</v>
+        <v>41186</v>
       </c>
       <c r="D7" t="n">
-        <v>310081</v>
+        <v>419183</v>
       </c>
       <c r="E7" t="n">
-        <v>52.2</v>
+        <v>25</v>
+      </c>
+      <c r="F7" t="n">
+        <v>419183</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2021年5月</t>
+          <t>2021-08</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-9</v>
+        <v>-12.7</v>
       </c>
       <c r="C8" t="n">
-        <v>64162</v>
+        <v>35105</v>
       </c>
       <c r="D8" t="n">
-        <v>374651</v>
+        <v>434434</v>
       </c>
       <c r="E8" t="n">
-        <v>36.7</v>
+        <v>20.2</v>
+      </c>
+      <c r="F8" t="n">
+        <v>15251</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2021年6月</t>
+          <t>2021-09</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-15</v>
+        <v>-4.6</v>
       </c>
       <c r="C9" t="n">
-        <v>51498</v>
+        <v>46798</v>
       </c>
       <c r="D9" t="n">
-        <v>425461</v>
+        <v>478096</v>
       </c>
       <c r="E9" t="n">
-        <v>27</v>
+        <v>17.5</v>
+      </c>
+      <c r="F9" t="n">
+        <v>43662</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2021年7月</t>
+          <t>2021-10</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1</v>
+        <v>-4.8</v>
       </c>
       <c r="C10" t="n">
-        <v>41186</v>
+        <v>47605</v>
       </c>
       <c r="D10" t="n">
-        <v>419183</v>
+        <v>526113</v>
       </c>
       <c r="E10" t="n">
-        <v>25</v>
+        <v>15.1</v>
+      </c>
+      <c r="F10" t="n">
+        <v>48017</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2021年8月</t>
+          <t>2021-11</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-12.7</v>
+        <v>-12.1</v>
       </c>
       <c r="C11" t="n">
-        <v>35105</v>
+        <v>51217</v>
       </c>
       <c r="D11" t="n">
-        <v>434434</v>
+        <v>577280</v>
       </c>
       <c r="E11" t="n">
-        <v>20.2</v>
+        <v>13.1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>51167</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2021年9月</t>
+          <t>2021-12</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-4.6</v>
+        <v>-12.8</v>
       </c>
       <c r="C12" t="n">
-        <v>46798</v>
+        <v>55463</v>
       </c>
       <c r="D12" t="n">
-        <v>478096</v>
+        <v>634376</v>
       </c>
       <c r="E12" t="n">
-        <v>17.5</v>
+        <v>9.300000000000001</v>
+      </c>
+      <c r="F12" t="n">
+        <v>57096</v>
       </c>
     </row>
   </sheetData>

--- a/data_month/zb/工业/工业主要产品产量/挖掘铲土运输机械.xlsx
+++ b/data_month/zb/工业/工业主要产品产量/挖掘铲土运输机械.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,248 +454,506 @@
           <t>挖掘铲土运输机械产量_累计增长</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>挖掘铲土运输机械产量</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2021-02</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
+          <t>2021-10</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>-4.8</v>
+      </c>
+      <c r="C2" t="n">
+        <v>47605</v>
+      </c>
       <c r="D2" t="n">
-        <v>128147</v>
+        <v>526113</v>
       </c>
       <c r="E2" t="n">
-        <v>105.1</v>
-      </c>
-      <c r="F2" t="n">
-        <v>128147</v>
+        <v>15.1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2021-03</t>
+          <t>2021-11</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>48.4</v>
+        <v>-12.1</v>
       </c>
       <c r="C3" t="n">
-        <v>95385</v>
+        <v>51217</v>
       </c>
       <c r="D3" t="n">
-        <v>227231</v>
+        <v>577280</v>
       </c>
       <c r="E3" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="F3" t="n">
-        <v>99084</v>
+        <v>13.1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2021-04</t>
+          <t>2021-12</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5.1</v>
+        <v>-12.8</v>
       </c>
       <c r="C4" t="n">
-        <v>79552</v>
+        <v>55463</v>
       </c>
       <c r="D4" t="n">
-        <v>310081</v>
+        <v>634376</v>
       </c>
       <c r="E4" t="n">
-        <v>52.2</v>
-      </c>
-      <c r="F4" t="n">
-        <v>82850</v>
+        <v>9.300000000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2021-05</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>-9</v>
-      </c>
-      <c r="C5" t="n">
-        <v>64162</v>
-      </c>
+          <t>2021-02</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>374651</v>
+        <v>128147</v>
       </c>
       <c r="E5" t="n">
-        <v>36.7</v>
-      </c>
-      <c r="F5" t="n">
-        <v>64570</v>
+        <v>105.1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2021-06</t>
+          <t>2021-03</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-15</v>
+        <v>48.4</v>
       </c>
       <c r="C6" t="n">
-        <v>51498</v>
+        <v>95385</v>
       </c>
       <c r="D6" t="n">
-        <v>425461</v>
+        <v>227231</v>
       </c>
       <c r="E6" t="n">
-        <v>27</v>
-      </c>
-      <c r="F6" t="n">
-        <v>50810</v>
+        <v>74.90000000000001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2021-07</t>
+          <t>2021-04</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1</v>
+        <v>5.1</v>
       </c>
       <c r="C7" t="n">
-        <v>41186</v>
+        <v>79552</v>
       </c>
       <c r="D7" t="n">
-        <v>419183</v>
+        <v>310081</v>
       </c>
       <c r="E7" t="n">
-        <v>25</v>
-      </c>
-      <c r="F7" t="n">
-        <v>419183</v>
+        <v>52.2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2021-08</t>
+          <t>2021-05</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-12.7</v>
+        <v>-9</v>
       </c>
       <c r="C8" t="n">
-        <v>35105</v>
+        <v>64162</v>
       </c>
       <c r="D8" t="n">
-        <v>434434</v>
+        <v>374651</v>
       </c>
       <c r="E8" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="F8" t="n">
-        <v>15251</v>
+        <v>36.7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2021-09</t>
+          <t>2021-06</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-4.6</v>
+        <v>-15</v>
       </c>
       <c r="C9" t="n">
-        <v>46798</v>
+        <v>51498</v>
       </c>
       <c r="D9" t="n">
-        <v>478096</v>
+        <v>425461</v>
       </c>
       <c r="E9" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="F9" t="n">
-        <v>43662</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2021-10</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-4.8</v>
+        <v>-1</v>
       </c>
       <c r="C10" t="n">
-        <v>47605</v>
+        <v>41186</v>
       </c>
       <c r="D10" t="n">
-        <v>526113</v>
+        <v>419183</v>
       </c>
       <c r="E10" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="F10" t="n">
-        <v>48017</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2021-11</t>
+          <t>2021-08</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-12.1</v>
+        <v>-12.7</v>
       </c>
       <c r="C11" t="n">
-        <v>51217</v>
+        <v>35105</v>
       </c>
       <c r="D11" t="n">
-        <v>577280</v>
+        <v>434434</v>
       </c>
       <c r="E11" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="F11" t="n">
-        <v>51167</v>
+        <v>20.2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2021-12</t>
+          <t>2021-09</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-12.8</v>
+        <v>-4.6</v>
       </c>
       <c r="C12" t="n">
-        <v>55463</v>
+        <v>46798</v>
       </c>
       <c r="D12" t="n">
-        <v>634376</v>
+        <v>478096</v>
       </c>
       <c r="E12" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="F12" t="n">
-        <v>57096</v>
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>2022-10</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>-4.8</v>
+      </c>
+      <c r="C13" t="n">
+        <v>46941</v>
+      </c>
+      <c r="D13" t="n">
+        <v>461272</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-14.5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>2022-11</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>-6.9</v>
+      </c>
+      <c r="C14" t="n">
+        <v>49059</v>
+      </c>
+      <c r="D14" t="n">
+        <v>510014</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-13.8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>2022-12</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>-24.6</v>
+      </c>
+      <c r="C15" t="n">
+        <v>42858</v>
+      </c>
+      <c r="D15" t="n">
+        <v>552604</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-14.8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>2022-02</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="n">
+        <v>104211</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-9.800000000000001</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>2022-03</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-22.6</v>
+      </c>
+      <c r="C17" t="n">
+        <v>59281</v>
+      </c>
+      <c r="D17" t="n">
+        <v>163555</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-14.9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>2022-04</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-48.1</v>
+      </c>
+      <c r="C18" t="n">
+        <v>34704</v>
+      </c>
+      <c r="D18" t="n">
+        <v>197180</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-24.9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>2022-05</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-25.9</v>
+      </c>
+      <c r="C19" t="n">
+        <v>41076</v>
+      </c>
+      <c r="D19" t="n">
+        <v>247946</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-22.8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>2022-06</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>-2</v>
+      </c>
+      <c r="C20" t="n">
+        <v>44426</v>
+      </c>
+      <c r="D20" t="n">
+        <v>293508</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-20.2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>2022-07</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>-3.4</v>
+      </c>
+      <c r="C21" t="n">
+        <v>38203</v>
+      </c>
+      <c r="D21" t="n">
+        <v>330230</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-18.3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>2022-08</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>4</v>
+      </c>
+      <c r="C22" t="n">
+        <v>38281</v>
+      </c>
+      <c r="D22" t="n">
+        <v>370094</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>2022-09</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>-12.1</v>
+      </c>
+      <c r="C23" t="n">
+        <v>43287</v>
+      </c>
+      <c r="D23" t="n">
+        <v>413447</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-15.6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>2023-02</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="n">
+        <v>77330</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-26.4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>2023-03</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="C25" t="n">
+        <v>61496</v>
+      </c>
+      <c r="D25" t="n">
+        <v>138587</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-16.3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>2023-04</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="C26" t="n">
+        <v>38761</v>
+      </c>
+      <c r="D26" t="n">
+        <v>177015</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-11.3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>2023-05</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>-19.1</v>
+      </c>
+      <c r="C27" t="n">
+        <v>33704</v>
+      </c>
+      <c r="D27" t="n">
+        <v>210723</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-12.7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>2023-06</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>-17.6</v>
+      </c>
+      <c r="C28" t="n">
+        <v>37004</v>
+      </c>
+      <c r="D28" t="n">
+        <v>247761</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-13.6</v>
       </c>
     </row>
   </sheetData>
